--- a/Desarrollo/SGATC/Gestion/SGATC-CP.xlsx
+++ b/Desarrollo/SGATC/Gestion/SGATC-CP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\villa\OneDrive\Documentos\GitHub\AETHER_TECH\Desarrollo\SGATC\Gestion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F05D6D64-4029-4057-9399-61BB437490B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D3AED11-01A5-4E89-9667-52A95F55F9EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1165,6 +1165,11 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1177,11 +1182,6 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1451,7 +1451,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -1493,7 +1493,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.4">
+    <row r="2" spans="1:8" ht="16.8">
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
@@ -1519,7 +1519,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.4">
+    <row r="3" spans="1:8" ht="16.8">
       <c r="A3" s="12" t="s">
         <v>13</v>
       </c>
@@ -1545,7 +1545,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.4">
+    <row r="4" spans="1:8" ht="16.8">
       <c r="A4" s="5" t="s">
         <v>16</v>
       </c>
@@ -1571,7 +1571,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.4">
+    <row r="5" spans="1:8" ht="16.8">
       <c r="A5" s="12" t="s">
         <v>19</v>
       </c>
@@ -1597,7 +1597,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.4">
+    <row r="6" spans="1:8" ht="16.8">
       <c r="A6" s="5" t="s">
         <v>24</v>
       </c>
@@ -1623,7 +1623,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="14.4">
+    <row r="7" spans="1:8" ht="16.8">
       <c r="A7" s="12" t="s">
         <v>27</v>
       </c>
@@ -1649,7 +1649,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="14.4">
+    <row r="8" spans="1:8" ht="16.8">
       <c r="A8" s="5" t="s">
         <v>27</v>
       </c>
@@ -1675,7 +1675,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="14.4">
+    <row r="9" spans="1:8" ht="16.8">
       <c r="A9" s="12" t="s">
         <v>27</v>
       </c>
@@ -1701,7 +1701,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="14.4">
+    <row r="10" spans="1:8" ht="16.8">
       <c r="A10" s="5" t="s">
         <v>27</v>
       </c>
@@ -1727,7 +1727,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="14.4">
+    <row r="11" spans="1:8" ht="16.8">
       <c r="A11" s="12" t="s">
         <v>27</v>
       </c>
@@ -1753,7 +1753,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="14.4">
+    <row r="12" spans="1:8" ht="16.8">
       <c r="A12" s="5" t="s">
         <v>27</v>
       </c>
@@ -1795,7 +1795,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="14.4">
+    <row r="14" spans="1:8" ht="16.8">
       <c r="A14" s="26" t="s">
         <v>49</v>
       </c>
@@ -1818,10 +1818,10 @@
         <v>51</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="14.4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="16.8">
       <c r="A15" s="28" t="s">
         <v>53</v>
       </c>
@@ -1847,7 +1847,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="14.4">
+    <row r="16" spans="1:8" ht="16.8">
       <c r="A16" s="26" t="s">
         <v>58</v>
       </c>
@@ -1873,7 +1873,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="14.4">
+    <row r="17" spans="1:8" ht="16.8">
       <c r="A17" s="28" t="s">
         <v>62</v>
       </c>
@@ -1919,7 +1919,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="14.4">
+    <row r="19" spans="1:8" ht="16.8">
       <c r="A19" s="28" t="s">
         <v>67</v>
       </c>
@@ -1945,7 +1945,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="14.4">
+    <row r="20" spans="1:8" ht="16.8">
       <c r="A20" s="26" t="s">
         <v>71</v>
       </c>
@@ -1971,7 +1971,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="14.4">
+    <row r="21" spans="1:8" ht="16.8">
       <c r="A21" s="28" t="s">
         <v>74</v>
       </c>
@@ -1997,7 +1997,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="14.4">
+    <row r="22" spans="1:8" ht="16.8">
       <c r="A22" s="26" t="s">
         <v>77</v>
       </c>
@@ -2023,7 +2023,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="14.4">
+    <row r="23" spans="1:8" ht="16.8">
       <c r="A23" s="28" t="s">
         <v>82</v>
       </c>
@@ -2049,7 +2049,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="14.4">
+    <row r="24" spans="1:8" ht="16.8">
       <c r="A24" s="26" t="s">
         <v>85</v>
       </c>
@@ -2174,11 +2174,11 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1">
       <c r="A2" s="36"/>
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="82" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
       <c r="E2" s="37"/>
       <c r="F2" s="37"/>
       <c r="G2" s="37"/>
@@ -2271,10 +2271,10 @@
       <c r="B5" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="C5" s="81" t="s">
+      <c r="C5" s="84" t="s">
         <v>94</v>
       </c>
-      <c r="D5" s="80"/>
+      <c r="D5" s="83"/>
       <c r="E5" s="48"/>
       <c r="F5" s="46" t="s">
         <v>95</v>
@@ -2750,10 +2750,10 @@
       <c r="E17" s="62" t="s">
         <v>120</v>
       </c>
-      <c r="F17" s="82">
+      <c r="F17" s="85">
         <v>45750</v>
       </c>
-      <c r="G17" s="82">
+      <c r="G17" s="85">
         <v>45757</v>
       </c>
       <c r="H17" s="65">
@@ -2792,8 +2792,8 @@
       <c r="E18" s="62" t="s">
         <v>125</v>
       </c>
-      <c r="F18" s="83"/>
-      <c r="G18" s="83"/>
+      <c r="F18" s="86"/>
+      <c r="G18" s="86"/>
       <c r="H18" s="65">
         <v>1</v>
       </c>
@@ -2830,8 +2830,8 @@
       <c r="E19" s="62" t="s">
         <v>126</v>
       </c>
-      <c r="F19" s="83"/>
-      <c r="G19" s="83"/>
+      <c r="F19" s="86"/>
+      <c r="G19" s="86"/>
       <c r="H19" s="65">
         <v>1</v>
       </c>
@@ -2868,8 +2868,8 @@
       <c r="E20" s="62" t="s">
         <v>127</v>
       </c>
-      <c r="F20" s="83"/>
-      <c r="G20" s="83"/>
+      <c r="F20" s="86"/>
+      <c r="G20" s="86"/>
       <c r="H20" s="65">
         <v>1</v>
       </c>
@@ -2906,8 +2906,8 @@
       <c r="E21" s="62" t="s">
         <v>128</v>
       </c>
-      <c r="F21" s="83"/>
-      <c r="G21" s="83"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="86"/>
       <c r="H21" s="65">
         <v>1</v>
       </c>
@@ -2944,8 +2944,8 @@
       <c r="E22" s="62" t="s">
         <v>129</v>
       </c>
-      <c r="F22" s="84"/>
-      <c r="G22" s="84"/>
+      <c r="F22" s="87"/>
+      <c r="G22" s="87"/>
       <c r="H22" s="65">
         <v>1</v>
       </c>
@@ -2975,14 +2975,14 @@
       <c r="B23" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="85">
+      <c r="C23" s="79">
         <v>45774</v>
       </c>
-      <c r="D23" s="86"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="87"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="81"/>
       <c r="I23" s="42"/>
       <c r="J23" s="42"/>
       <c r="K23" s="42"/>
@@ -3153,14 +3153,14 @@
       <c r="B28" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="C28" s="85">
+      <c r="C28" s="79">
         <v>45774</v>
       </c>
-      <c r="D28" s="86"/>
-      <c r="E28" s="86"/>
-      <c r="F28" s="86"/>
-      <c r="G28" s="86"/>
-      <c r="H28" s="87"/>
+      <c r="D28" s="80"/>
+      <c r="E28" s="80"/>
+      <c r="F28" s="80"/>
+      <c r="G28" s="80"/>
+      <c r="H28" s="81"/>
       <c r="I28" s="42"/>
       <c r="J28" s="42"/>
       <c r="K28" s="42"/>
@@ -3403,14 +3403,14 @@
       <c r="B35" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="C35" s="85">
+      <c r="C35" s="79">
         <v>45801</v>
       </c>
-      <c r="D35" s="86"/>
-      <c r="E35" s="86"/>
-      <c r="F35" s="86"/>
-      <c r="G35" s="86"/>
-      <c r="H35" s="87"/>
+      <c r="D35" s="80"/>
+      <c r="E35" s="80"/>
+      <c r="F35" s="80"/>
+      <c r="G35" s="80"/>
+      <c r="H35" s="81"/>
       <c r="I35" s="42"/>
       <c r="J35" s="42"/>
       <c r="K35" s="42"/>
